--- a/EDA/BoSL BOM Rev 0.4.2.xlsx
+++ b/EDA/BoSL BOM Rev 0.4.2.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20359"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20368"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scat0009\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.monash.edu\home\User070\scat0009\Documents\Repositories\Monash-BoSL\EDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274DEC1D-F3F0-41E2-AE6F-5E3F8A0D1E6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF0D241-D195-4652-A09A-DFA32FA4766C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$39</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="145">
   <si>
     <t>Part Number</t>
   </si>
@@ -452,6 +455,9 @@
   </si>
   <si>
     <t>212570-0100</t>
+  </si>
+  <si>
+    <t>2337019-1</t>
   </si>
 </sst>
 </file>
@@ -461,12 +467,19 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -582,36 +595,37 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -891,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" activeCellId="3" sqref="H2:H5 H7:H24 H26:H37 H25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -936,365 +950,351 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="H2" s="14">
-        <f>F2*G2</f>
-        <v>0.5</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>8</v>
+      <c r="A2" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2" s="17">
+        <v>2.34</v>
+      </c>
+      <c r="H2" s="17">
+        <f>G2*F2</f>
+        <v>4.68</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="7"/>
+      <c r="A3" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="16"/>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
+        <v>131</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
       </c>
       <c r="G3" s="14">
-        <v>1.5</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="H3" s="14">
-        <f t="shared" ref="H3:H28" si="0">F3*G3</f>
-        <v>1.5</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>73</v>
+        <f>G3*F3</f>
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
+      <c r="A4" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>24</v>
+        <v>119</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
       </c>
       <c r="G4" s="14">
-        <v>0.3</v>
+        <v>0.63</v>
       </c>
       <c r="H4" s="14">
-        <f t="shared" si="0"/>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>129</v>
+        <f>G4*F4</f>
+        <v>0.63</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
+      <c r="A5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1206</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="16">
+        <v>2</v>
       </c>
       <c r="G5" s="14">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H5" s="14">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="14">
-        <v>19</v>
-      </c>
-      <c r="H6" s="14">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>20</v>
+        <f>F5*G5</f>
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1">
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="17">
+        <f>G6*F6</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>135</v>
+      <c r="A7" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
       </c>
       <c r="G7" s="14">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="H7" s="14">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>133</v>
-      </c>
+        <f>G7*F7</f>
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="14">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="H8" s="14">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>25</v>
-      </c>
+        <f>F8*G8</f>
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1">
-      <c r="A9" s="3" t="s">
-        <v>99</v>
+      <c r="A9" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="17">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="H9" s="17">
-        <f t="shared" si="0"/>
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="14">
+        <f>F9*G9</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="7">
-        <v>1206</v>
+      <c r="B10" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" s="14">
         <v>0.1</v>
       </c>
       <c r="H10" s="14">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="I10" s="4"/>
+        <f>F10*G10</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>27</v>
+      <c r="A11" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="14">
         <v>0.1</v>
       </c>
       <c r="H11" s="14">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="I11" s="3"/>
+        <f>F11*G11</f>
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>94</v>
-      </c>
+      <c r="A12" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="10"/>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" s="14">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="H12" s="14">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="I12" s="3"/>
+        <f>F12*G12</f>
+        <v>2.5</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>66</v>
+      <c r="A13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" s="14">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H13" s="14">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>36</v>
+        <f>F13*G13</f>
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" s="14">
         <v>0.1</v>
       </c>
       <c r="H14" s="14">
-        <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <f>F14*G14</f>
+        <v>0.1</v>
       </c>
       <c r="I14" s="3"/>
     </row>
@@ -1306,25 +1306,25 @@
         <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G15" s="14">
         <v>0.1</v>
       </c>
       <c r="H15" s="14">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="I15" s="4"/>
+        <f>F15*G15</f>
+        <v>0.1</v>
+      </c>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
@@ -1334,38 +1334,41 @@
         <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G16" s="14">
         <v>0.1</v>
       </c>
       <c r="H16" s="14">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="I16" s="4"/>
+        <f>F16*G16</f>
+        <v>0.2</v>
+      </c>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1374,7 +1377,7 @@
         <v>0.1</v>
       </c>
       <c r="H17" s="14">
-        <f t="shared" si="0"/>
+        <f>F17*G17</f>
         <v>0.1</v>
       </c>
       <c r="I17" s="3"/>
@@ -1387,13 +1390,13 @@
         <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
         <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1402,516 +1405,545 @@
         <v>0.1</v>
       </c>
       <c r="H18" s="14">
-        <f t="shared" si="0"/>
+        <f>F18*G18</f>
         <v>0.1</v>
       </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>27</v>
+      <c r="A19" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
+        <v>82</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16">
+        <v>1</v>
       </c>
       <c r="G19" s="14">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="H19" s="14">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="I19" s="3"/>
+        <f>F19*G19</f>
+        <v>1.5</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
+      <c r="A20" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
+        <v>78</v>
+      </c>
+      <c r="F20" s="16">
+        <v>1</v>
       </c>
       <c r="G20" s="14">
-        <v>0.1</v>
+        <v>19</v>
       </c>
       <c r="H20" s="14">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="I20" s="3"/>
+        <f>F20*G20</f>
+        <v>19</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>27</v>
+      <c r="A21" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
+        <v>63</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G21" s="14">
-        <v>0.1</v>
+        <v>0.93</v>
       </c>
       <c r="H21" s="14">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="I21" s="3"/>
+        <f>F21*G21</f>
+        <v>11.16</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="7"/>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" s="14">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H22" s="14">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>F22*G22</f>
+        <v>1.5</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>27</v>
+      <c r="A23" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>134</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" s="14">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H23" s="14">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f>F23*G23</f>
+        <v>0.8</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" t="s">
-        <v>60</v>
+      <c r="A24" s="1"/>
+      <c r="B24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>139</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" s="14">
-        <v>0.69</v>
-      </c>
-      <c r="H24" s="14">
-        <f t="shared" si="0"/>
-        <v>0.69</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>127</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G25" s="14">
-        <v>19</v>
+        <v>0.1</v>
       </c>
       <c r="H25" s="14">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>79</v>
-      </c>
+        <f>F25*G25</f>
+        <v>0.4</v>
+      </c>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>41</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G26" s="14">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="H26" s="14">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>83</v>
-      </c>
+        <f>F26*G26</f>
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27">
+      <c r="A27" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="16">
         <v>1</v>
       </c>
       <c r="G27" s="14">
-        <v>2.16</v>
+        <v>0.5</v>
       </c>
       <c r="H27" s="14">
-        <f t="shared" si="0"/>
-        <v>2.16</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>117</v>
+        <f>F27*G27</f>
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28">
+      <c r="A28" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16">
         <v>1</v>
       </c>
       <c r="G28" s="14">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H28" s="14">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1"/>
-      <c r="B29" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="9"/>
+        <f>F28*G28</f>
+        <v>0.6</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="3" customFormat="1">
+      <c r="A29" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="17">
+        <v>19</v>
+      </c>
+      <c r="H29" s="17">
+        <f>F29*G29</f>
+        <v>19</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="30" spans="1:9" s="3" customFormat="1">
-      <c r="A30" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="F30" s="3">
-        <v>2</v>
-      </c>
-      <c r="G30" s="17">
-        <v>2.34</v>
-      </c>
-      <c r="H30" s="17">
-        <f t="shared" ref="H30:H37" si="1">G30*F30</f>
-        <v>4.68</v>
+      <c r="A30" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16">
+        <v>1</v>
+      </c>
+      <c r="G30" s="14">
+        <v>1</v>
+      </c>
+      <c r="H30" s="14">
+        <f>F30*G30</f>
+        <v>1</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1">
       <c r="A31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
       </c>
       <c r="G31" s="17">
-        <v>0.1</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="H31" s="17">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
+        <f>F31*G31</f>
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="16" customFormat="1">
-      <c r="A32" s="3" t="s">
-        <v>27</v>
+      <c r="A32" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>106</v>
+        <v>64</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="F32" s="16">
+        <v>1</v>
       </c>
       <c r="G32" s="14">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="H32" s="14">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="I32" s="3"/>
+        <f>F32*G32</f>
+        <v>4</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="16">
+        <v>1</v>
+      </c>
+      <c r="G33" s="14">
+        <v>2.16</v>
+      </c>
+      <c r="H33" s="14">
+        <f>F33*G33</f>
+        <v>2.16</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D34" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="14">
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="14">
         <v>0.74</v>
       </c>
-      <c r="H33" s="14">
-        <f t="shared" si="1"/>
+      <c r="H34" s="14">
+        <f>G34*F34</f>
         <v>0.74</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
+    <row r="35" spans="1:9">
+      <c r="A35" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="16">
+        <v>1</v>
+      </c>
+      <c r="G35" s="14">
+        <v>0.69</v>
+      </c>
+      <c r="H35" s="14">
+        <f>F35*G35</f>
+        <v>0.69</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D36" t="s">
         <v>61</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E36" t="s">
         <v>111</v>
       </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="14">
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="14">
         <v>0.43</v>
       </c>
-      <c r="H34" s="14">
-        <f t="shared" si="1"/>
+      <c r="H36" s="14">
+        <f>G36*F36</f>
         <v>0.43</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" t="s">
-        <v>119</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="14">
-        <v>0.63</v>
-      </c>
-      <c r="H35" s="14">
-        <f t="shared" si="1"/>
-        <v>0.63</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="16"/>
-      <c r="B36" t="s">
+    <row r="37" spans="1:9">
+      <c r="B37" t="s">
         <v>123</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>122</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>125</v>
       </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="14">
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="14">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H36" s="14">
-        <f t="shared" si="1"/>
+      <c r="H37" s="14">
+        <f>G37*F37</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="C37" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" t="s">
-        <v>131</v>
-      </c>
-      <c r="F37" s="3">
-        <v>2</v>
-      </c>
-      <c r="G37" s="14">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="H37" s="14">
-        <f t="shared" si="1"/>
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="I37" s="22" t="s">
-        <v>132</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:I39" xr:uid="{DC814136-6A60-4155-8731-27BFDCD76417}">
+    <sortState ref="A2:I39">
+      <sortCondition ref="C1:C39"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A2:I38">
+    <sortCondition ref="A1"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I22" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="I23" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I25" r:id="rId7" display="https://www.aliexpress.com/item/32963816626.html?spm=2114.search0604.3.36.61e15ac4BS3gJ9&amp;ws_ab_test=searchweb0_0%2Csearchweb201602_6_10065_10130_10068_10547_319_317_10548_10696_453_10084_454_10083_10618_10307_537_536_10131_10132_10133_10059_10884_10887_321_322_10103%2Csearchweb201603_51%2CppcSwitch_0&amp;algo_expid=a8ad79e3-3036-4b7a-8391-3f73e7497cac-5&amp;algo_pvid=a8ad79e3-3036-4b7a-8391-3f73e7497cac" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="I26" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I28" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="I5" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="I9" r:id="rId11" xr:uid="{68617DBC-81B6-4EF9-9C99-38891EFD4A08}"/>
-    <hyperlink ref="I6" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I4" r:id="rId13" xr:uid="{BEE04C60-5818-4990-B6E5-9C978C69140C}"/>
-    <hyperlink ref="I33" r:id="rId14" xr:uid="{BA3D12A0-0DAB-4A2C-A182-385B31D67850}"/>
-    <hyperlink ref="I30" r:id="rId15" xr:uid="{33CEC409-3011-4367-98E8-9370CA5D6CB4}"/>
+    <hyperlink ref="I13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I30" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I32" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I27" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I22" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I20" r:id="rId7" display="https://www.aliexpress.com/item/32963816626.html?spm=2114.search0604.3.36.61e15ac4BS3gJ9&amp;ws_ab_test=searchweb0_0%2Csearchweb201602_6_10065_10130_10068_10547_319_317_10548_10696_453_10084_454_10083_10618_10307_537_536_10131_10132_10133_10059_10884_10887_321_322_10103%2Csearchweb201603_51%2CppcSwitch_0&amp;algo_expid=a8ad79e3-3036-4b7a-8391-3f73e7497cac-5&amp;algo_pvid=a8ad79e3-3036-4b7a-8391-3f73e7497cac" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I19" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I28" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="I31" r:id="rId11" xr:uid="{68617DBC-81B6-4EF9-9C99-38891EFD4A08}"/>
+    <hyperlink ref="I21" r:id="rId12" xr:uid="{BEE04C60-5818-4990-B6E5-9C978C69140C}"/>
+    <hyperlink ref="I34" r:id="rId13" xr:uid="{BA3D12A0-0DAB-4A2C-A182-385B31D67850}"/>
+    <hyperlink ref="I2" r:id="rId14" xr:uid="{33CEC409-3011-4367-98E8-9370CA5D6CB4}"/>
+    <hyperlink ref="I29" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
